--- a/dist/document/dest/2020/10/chi lam/97_nhp.xlsx
+++ b/dist/document/dest/2020/10/chi lam/97_nhp.xlsx
@@ -16,13 +16,13 @@
     <t>Công ty TNHH DP Hoàng Trân</t>
   </si>
   <si>
-    <t>Trình Dược Viên: chi lam</t>
-  </si>
-  <si>
-    <t>PHÍ THÁNG (01/09 -&gt; 30/09/2020)</t>
-  </si>
-  <si>
-    <t>Bác Sĩ: Nguyễn Hoàng Phước</t>
+    <t>TDV: chi lam</t>
+  </si>
+  <si>
+    <t>27/10/2020</t>
+  </si>
+  <si>
+    <t>Kính gửi khách hàng: 97</t>
   </si>
   <si>
     <t>STT</t>
@@ -46,16 +46,16 @@
     <t>CK</t>
   </si>
   <si>
-    <t>Cefass</t>
-  </si>
-  <si>
-    <t>Optipan</t>
-  </si>
-  <si>
-    <t>Noraquick</t>
-  </si>
-  <si>
-    <t>Sanaperol</t>
+    <t>Cefa**</t>
+  </si>
+  <si>
+    <t>Opti***</t>
+  </si>
+  <si>
+    <t>Nora*****</t>
+  </si>
+  <si>
+    <t>Sana*****</t>
   </si>
   <si>
     <t>Tổng cộng</t>
@@ -590,19 +590,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="10">
-        <v>4266</v>
+        <v>3912</v>
       </c>
       <c r="D6" s="10">
         <v>9000</v>
       </c>
       <c r="E6" s="10">
-        <v>38394000</v>
+        <v>35208000</v>
       </c>
       <c r="F6" s="10">
         <v>50</v>
       </c>
       <c r="G6" s="10">
-        <v>19197000</v>
+        <v>17604000</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -613,19 +613,19 @@
         <v>12</v>
       </c>
       <c r="C7" s="10">
-        <v>882</v>
+        <v>1150</v>
       </c>
       <c r="D7" s="10">
         <v>9900</v>
       </c>
       <c r="E7" s="10">
-        <v>8731800</v>
+        <v>11385000</v>
       </c>
       <c r="F7" s="10">
         <v>35</v>
       </c>
       <c r="G7" s="10">
-        <v>3056130</v>
+        <v>3984750</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -636,19 +636,19 @@
         <v>13</v>
       </c>
       <c r="C8" s="10">
-        <v>9536</v>
+        <v>7633</v>
       </c>
       <c r="D8" s="10">
         <v>6000</v>
       </c>
       <c r="E8" s="10">
-        <v>57216000</v>
+        <v>45798000</v>
       </c>
       <c r="F8" s="10">
         <v>50</v>
       </c>
       <c r="G8" s="10">
-        <v>28608000</v>
+        <v>22899000</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -659,19 +659,19 @@
         <v>14</v>
       </c>
       <c r="C9" s="10">
-        <v>10419</v>
+        <v>9417</v>
       </c>
       <c r="D9" s="10">
         <v>7900</v>
       </c>
       <c r="E9" s="10">
-        <v>82310100</v>
+        <v>74394300</v>
       </c>
       <c r="F9" s="10">
         <v>45</v>
       </c>
       <c r="G9" s="10">
-        <v>37039545</v>
+        <v>33477435</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -680,15 +680,15 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="11">
-        <v>25103</v>
+        <v>22112</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11">
-        <v>186651900</v>
+        <v>166785300</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11">
-        <v>87900675</v>
+        <v>77965185</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
